--- a/uml/crc.xlsx
+++ b/uml/crc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Student</t>
   </si>
@@ -45,7 +45,19 @@
     <t>CertificatePrinter</t>
   </si>
   <si>
-    <t>analyze the student's results</t>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>serve as key for results</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>act as source for all required data</t>
+  </si>
+  <si>
+    <t>represent parts of the certificate</t>
   </si>
 </sst>
 </file>
@@ -169,20 +181,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -484,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -498,78 +516,118 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
